--- a/GraphExperimentLibraryForCS/output/Hypercube_Graph.xlsx
+++ b/GraphExperimentLibraryForCS/output/Hypercube_Graph.xlsx
@@ -19,11 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
-  <si>
-    <t>Sinple</t>
-    <phoneticPr fontId="18"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Capability</t>
     <phoneticPr fontId="18"/>
@@ -34,6 +30,14 @@
   </si>
   <si>
     <t>test</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Greedy</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Simple</t>
     <phoneticPr fontId="18"/>
   </si>
 </sst>
@@ -722,7 +726,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Sinple</c:v>
+                  <c:v>Simple</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -788,31 +792,31 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.99</c:v>
+                  <c:v>0.98899999999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.94199999999999995</c:v>
+                  <c:v>0.96099999999999997</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.88800000000000001</c:v>
+                  <c:v>0.878</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.77200000000000002</c:v>
+                  <c:v>0.77100000000000002</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.624</c:v>
+                  <c:v>0.60399999999999998</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.4</c:v>
+                  <c:v>0.44</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.24</c:v>
+                  <c:v>0.26200000000000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.25800000000000001</c:v>
+                  <c:v>0.255</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.92</c:v>
+                  <c:v>0.92600000000000005</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -899,31 +903,31 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.998</c:v>
+                  <c:v>0.996</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.95199999999999996</c:v>
+                  <c:v>0.97399999999999998</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.90800000000000003</c:v>
+                  <c:v>0.89800000000000002</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.77400000000000002</c:v>
+                  <c:v>0.78300000000000003</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.624</c:v>
+                  <c:v>0.60899999999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.4</c:v>
+                  <c:v>0.441</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.24</c:v>
+                  <c:v>0.26300000000000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.25800000000000001</c:v>
+                  <c:v>0.255</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.92</c:v>
+                  <c:v>0.92600000000000005</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1010,31 +1014,31 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.996</c:v>
+                  <c:v>0.99299999999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.97599999999999998</c:v>
+                  <c:v>0.97799999999999998</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.93400000000000005</c:v>
+                  <c:v>0.92100000000000004</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.81200000000000006</c:v>
+                  <c:v>0.84899999999999998</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.67800000000000005</c:v>
+                  <c:v>0.7</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.504</c:v>
+                  <c:v>0.53800000000000003</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.29399999999999998</c:v>
+                  <c:v>0.315</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.29599999999999999</c:v>
+                  <c:v>0.28699999999999998</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.92600000000000005</c:v>
+                  <c:v>0.94199999999999995</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1121,31 +1125,31 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.99</c:v>
+                  <c:v>0.99399999999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.94399999999999995</c:v>
+                  <c:v>0.97399999999999998</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.88400000000000001</c:v>
+                  <c:v>0.90400000000000003</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.77800000000000002</c:v>
+                  <c:v>0.80700000000000005</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.60399999999999998</c:v>
+                  <c:v>0.63</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.40200000000000002</c:v>
+                  <c:v>0.45800000000000002</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.25</c:v>
+                  <c:v>0.28399999999999997</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.254</c:v>
+                  <c:v>0.26100000000000001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.92</c:v>
+                  <c:v>0.93300000000000005</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1154,6 +1158,117 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000006-C1D1-43AB-BAE1-1B8A8A01675B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>test!$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Greedy</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>test!$B$1:$K$1</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>test!$B$6:$K$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.996</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.98299999999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.94799999999999995</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.85799999999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.70599999999999996</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.94599999999999995</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B8A7-419B-92FB-3431B6B47748}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2038,15 +2153,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>666750</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:colOff>104542</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>224186</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>561975</xdr:colOff>
+      <xdr:colOff>1626</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:rowOff>71786</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2651,10 +2766,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:K5"/>
+      <selection activeCell="B6" sqref="B6:K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2693,142 +2808,177 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.99</v>
+        <v>0.98899999999999999</v>
       </c>
       <c r="D2">
-        <v>0.94199999999999995</v>
+        <v>0.96099999999999997</v>
       </c>
       <c r="E2">
-        <v>0.88800000000000001</v>
+        <v>0.878</v>
       </c>
       <c r="F2">
-        <v>0.77200000000000002</v>
+        <v>0.77100000000000002</v>
       </c>
       <c r="G2">
-        <v>0.624</v>
+        <v>0.60399999999999998</v>
       </c>
       <c r="H2">
-        <v>0.4</v>
+        <v>0.44</v>
       </c>
       <c r="I2">
-        <v>0.24</v>
+        <v>0.26200000000000001</v>
       </c>
       <c r="J2">
-        <v>0.25800000000000001</v>
+        <v>0.255</v>
       </c>
       <c r="K2">
-        <v>0.92</v>
+        <v>0.92600000000000005</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
       <c r="C3">
-        <v>0.998</v>
+        <v>0.996</v>
       </c>
       <c r="D3">
-        <v>0.95199999999999996</v>
+        <v>0.97399999999999998</v>
       </c>
       <c r="E3">
-        <v>0.90800000000000003</v>
+        <v>0.89800000000000002</v>
       </c>
       <c r="F3">
-        <v>0.77400000000000002</v>
+        <v>0.78300000000000003</v>
       </c>
       <c r="G3">
-        <v>0.624</v>
+        <v>0.60899999999999999</v>
       </c>
       <c r="H3">
-        <v>0.4</v>
+        <v>0.441</v>
       </c>
       <c r="I3">
-        <v>0.24</v>
+        <v>0.26300000000000001</v>
       </c>
       <c r="J3">
-        <v>0.25800000000000001</v>
+        <v>0.255</v>
       </c>
       <c r="K3">
-        <v>0.92</v>
+        <v>0.92600000000000005</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
       <c r="C4">
-        <v>0.996</v>
+        <v>0.99299999999999999</v>
       </c>
       <c r="D4">
-        <v>0.97599999999999998</v>
+        <v>0.97799999999999998</v>
       </c>
       <c r="E4">
-        <v>0.93400000000000005</v>
+        <v>0.92100000000000004</v>
       </c>
       <c r="F4">
-        <v>0.81200000000000006</v>
+        <v>0.84899999999999998</v>
       </c>
       <c r="G4">
-        <v>0.67800000000000005</v>
+        <v>0.7</v>
       </c>
       <c r="H4">
-        <v>0.504</v>
+        <v>0.53800000000000003</v>
       </c>
       <c r="I4">
-        <v>0.29399999999999998</v>
+        <v>0.315</v>
       </c>
       <c r="J4">
-        <v>0.29599999999999999</v>
+        <v>0.28699999999999998</v>
       </c>
       <c r="K4">
-        <v>0.92600000000000005</v>
+        <v>0.94199999999999995</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
       <c r="C5">
-        <v>0.99</v>
+        <v>0.99399999999999999</v>
       </c>
       <c r="D5">
-        <v>0.94399999999999995</v>
+        <v>0.97399999999999998</v>
       </c>
       <c r="E5">
-        <v>0.88400000000000001</v>
+        <v>0.90400000000000003</v>
       </c>
       <c r="F5">
-        <v>0.77800000000000002</v>
+        <v>0.80700000000000005</v>
       </c>
       <c r="G5">
-        <v>0.60399999999999998</v>
+        <v>0.63</v>
       </c>
       <c r="H5">
-        <v>0.40200000000000002</v>
+        <v>0.45800000000000002</v>
       </c>
       <c r="I5">
-        <v>0.25</v>
+        <v>0.28399999999999997</v>
       </c>
       <c r="J5">
-        <v>0.254</v>
+        <v>0.26100000000000001</v>
       </c>
       <c r="K5">
-        <v>0.92</v>
+        <v>0.93300000000000005</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>0.997</v>
+      </c>
+      <c r="D6">
+        <v>0.996</v>
+      </c>
+      <c r="E6">
+        <v>0.98299999999999998</v>
+      </c>
+      <c r="F6">
+        <v>0.94799999999999995</v>
+      </c>
+      <c r="G6">
+        <v>0.85799999999999998</v>
+      </c>
+      <c r="H6">
+        <v>0.70599999999999996</v>
+      </c>
+      <c r="I6">
+        <v>0.45</v>
+      </c>
+      <c r="J6">
+        <v>0.32</v>
+      </c>
+      <c r="K6">
+        <v>0.94599999999999995</v>
       </c>
     </row>
   </sheetData>
